--- a/main/target/test-classes/xlsx/users.xlsx
+++ b/main/target/test-classes/xlsx/users.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oleksandr.c.BRILLIO\IdeaProjects\capstone-main\main\src\test\resources\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC1408EA-490A-4C58-920B-1A7A8BBB1611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE147958-D813-4F90-AC63-0F5717730AF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4635" yWindow="4005" windowWidth="28800" windowHeight="11325" xr2:uid="{992B54C3-16AE-4562-AD2E-95B9F3825C02}"/>
+    <workbookView xWindow="0" yWindow="4155" windowWidth="28800" windowHeight="11325" xr2:uid="{992B54C3-16AE-4562-AD2E-95B9F3825C02}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="49">
   <si>
     <t>First Name</t>
   </si>
@@ -61,124 +61,127 @@
     <t>Jonson</t>
   </si>
   <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>1234567891</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>California</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. </t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>1/7/1990</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>One Inc.</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>Zipcode</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Sunnyvale</t>
+  </si>
+  <si>
+    <t>User Name</t>
+  </si>
+  <si>
+    <t>JohnJonson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mrs. </t>
+  </si>
+  <si>
+    <t>TomTomson</t>
+  </si>
+  <si>
+    <t>JackJackson</t>
+  </si>
+  <si>
+    <t>1/7/1991</t>
+  </si>
+  <si>
+    <t>1/7/1992</t>
+  </si>
+  <si>
+    <t>Tom</t>
+  </si>
+  <si>
+    <t>Jack</t>
+  </si>
+  <si>
+    <t>Tomson</t>
+  </si>
+  <si>
+    <t>Jackson</t>
+  </si>
+  <si>
+    <t>Two Inc.</t>
+  </si>
+  <si>
+    <t>Three Inc.</t>
+  </si>
+  <si>
+    <t>Address 1</t>
+  </si>
+  <si>
+    <t>Address 2</t>
+  </si>
+  <si>
+    <t>Address 3</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>Miami</t>
+  </si>
+  <si>
+    <t>Seattle</t>
+  </si>
+  <si>
+    <t>1234567892</t>
+  </si>
+  <si>
+    <t>1234567893</t>
+  </si>
+  <si>
+    <t>1111.0</t>
+  </si>
+  <si>
     <t>john_johnson@exaple.com</t>
   </si>
   <si>
-    <t>State</t>
-  </si>
-  <si>
-    <t>1234567891</t>
-  </si>
-  <si>
-    <t>United States</t>
-  </si>
-  <si>
-    <t>California</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mr. </t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>1/7/1990</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>One Inc.</t>
-  </si>
-  <si>
-    <t>Company</t>
-  </si>
-  <si>
-    <t>Zipcode</t>
-  </si>
-  <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>City</t>
-  </si>
-  <si>
-    <t>Sunnyvale</t>
-  </si>
-  <si>
-    <t>User Name</t>
-  </si>
-  <si>
-    <t>JohnJonson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mrs. </t>
-  </si>
-  <si>
-    <t>TomTomson</t>
-  </si>
-  <si>
-    <t>JackJackson</t>
-  </si>
-  <si>
     <t>tom_tomson@exaple.com</t>
   </si>
   <si>
     <t>jack_jackson@exaple.com</t>
-  </si>
-  <si>
-    <t>1/7/1991</t>
-  </si>
-  <si>
-    <t>1/7/1992</t>
-  </si>
-  <si>
-    <t>Tom</t>
-  </si>
-  <si>
-    <t>Jack</t>
-  </si>
-  <si>
-    <t>Tomson</t>
-  </si>
-  <si>
-    <t>Jackson</t>
-  </si>
-  <si>
-    <t>Two Inc.</t>
-  </si>
-  <si>
-    <t>Three Inc.</t>
-  </si>
-  <si>
-    <t>Address 1</t>
-  </si>
-  <si>
-    <t>Address 2</t>
-  </si>
-  <si>
-    <t>Address 3</t>
-  </si>
-  <si>
-    <t>Florida</t>
-  </si>
-  <si>
-    <t>Washington</t>
-  </si>
-  <si>
-    <t>Miami</t>
-  </si>
-  <si>
-    <t>Seattle</t>
-  </si>
-  <si>
-    <t>1234567892</t>
-  </si>
-  <si>
-    <t>1234567893</t>
   </si>
 </sst>
 </file>
@@ -231,8 +234,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -551,203 +554,210 @@
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.85546875" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="1"/>
+    <col min="6" max="6" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="9.140625" style="1"/>
+    <col min="10" max="10" width="17.85546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N1" t="s">
-        <v>20</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="O1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2">
-        <v>1111</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="I2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N2">
+      <c r="L2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="1">
         <v>94085</v>
       </c>
-      <c r="O2" s="2" t="s">
-        <v>10</v>
+      <c r="O2" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3">
-        <v>1111</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="D3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J3" t="s">
-        <v>40</v>
-      </c>
-      <c r="K3" t="s">
-        <v>42</v>
-      </c>
-      <c r="L3" t="s">
-        <v>44</v>
-      </c>
-      <c r="M3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N3">
+      <c r="K3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="1">
         <v>94085</v>
       </c>
-      <c r="O3" s="2" t="s">
-        <v>46</v>
+      <c r="O3" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4">
-        <v>1111</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4" t="s">
-        <v>36</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="J4" t="s">
-        <v>41</v>
-      </c>
-      <c r="K4" t="s">
-        <v>43</v>
-      </c>
-      <c r="L4" t="s">
-        <v>45</v>
-      </c>
-      <c r="M4" t="s">
-        <v>11</v>
-      </c>
-      <c r="N4">
+      <c r="K4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="1">
         <v>94085</v>
       </c>
-      <c r="O4" s="2" t="s">
-        <v>47</v>
+      <c r="O4" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -760,5 +770,8 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>
+  <ignoredErrors>
+    <ignoredError sqref="O2:O4" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>